--- a/biology/Botanique/Sapium/Sapium.xlsx
+++ b/biology/Botanique/Sapium/Sapium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sapium est un genre de plantes à fleurs de la famille des Euphorbiaceae. Il regroupe environ 125 espèces originaires des régions tropicales essentiellement du Nouveau Monde.
 Ces plantes ont été cultivées autrefois pour produire des graisses et des savons d'où leur nom de Sapium.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Carumbium Kurz
 Gymnobothrys Wall. ex Baill.
@@ -548,14 +562,50 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Sapium caribaeum Urban
 Sapium laurifolium (A. Rich.) Griseb.
-Sapium laurocerasus Desf.
-Espèces principales
-Sapium aucuparium
+Sapium laurocerasus Desf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sapium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces principales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sapium aucuparium
 Sapium bolivianum
 Sapium biloculare
 Sapium glandulatum
